--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_19-03.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_19-03.xlsx
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>22:0</t>
+  </si>
+  <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>كريم ONE للبشره الحساسه</t>
@@ -3885,7 +3897,7 @@
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
@@ -3905,13 +3917,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
@@ -3923,7 +3935,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3931,13 +3943,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
@@ -3949,7 +3961,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3957,51 +3969,103 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="117" ht="26.25" customHeight="1">
-      <c r="K117" s="11">
-        <v>10824.43</v>
-      </c>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="11"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="12">
-        <v>147</v>
-      </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c t="s" r="F118" s="13">
-        <v>148</v>
-      </c>
-      <c r="G118" s="13"/>
-      <c r="H118" s="14"/>
-      <c t="s" r="I118" s="15">
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="6">
+        <v>114</v>
+      </c>
+      <c t="s" r="B117" s="7">
         <v>149</v>
       </c>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c t="s" r="H117" s="8">
+        <v>132</v>
+      </c>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="9">
+        <v>20</v>
+      </c>
+      <c r="M117" s="9"/>
+      <c r="N117" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" ht="25.5" customHeight="1">
+      <c r="A118" s="6">
+        <v>115</v>
+      </c>
+      <c t="s" r="B118" s="7">
+        <v>150</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c t="s" r="H118" s="8">
+        <v>11</v>
+      </c>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="9">
+        <v>300</v>
+      </c>
+      <c r="M118" s="9"/>
+      <c r="N118" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="K119" s="11">
+        <v>10889.43</v>
+      </c>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="12">
+        <v>151</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c t="s" r="F120" s="13">
+        <v>152</v>
+      </c>
+      <c r="G120" s="13"/>
+      <c r="H120" s="14"/>
+      <c t="s" r="I120" s="15">
+        <v>153</v>
+      </c>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="350">
+  <mergeCells count="356">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4348,10 +4412,16 @@
     <mergeCell ref="B116:G116"/>
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
-    <mergeCell ref="K117:N117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="I118:N118"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="K119:N119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="I120:N120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
